--- a/result/compare_result/compare_result_0729/result-100%.xlsx
+++ b/result/compare_result/compare_result_0729/result-100%.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="11700"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
     <t>传递式迁移（未调参）</t>
   </si>
   <si>
-    <t>总迭代超过100</t>
-  </si>
-  <si>
-    <t>总迭代为100</t>
+    <t>传递式迁移（调参后总迭代超过100）</t>
+  </si>
+  <si>
+    <t>传递式迁移（调参后总迭代为100）</t>
   </si>
   <si>
     <t>Drg0</t>
@@ -103,8 +103,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,14 +116,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,6 +212,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -144,116 +251,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,175 +268,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,8 +464,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -476,51 +478,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,11 +508,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,14 +1073,14 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="31.125" customWidth="1"/>
+    <col min="6" max="6" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1099,7 +1099,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1110,8 +1110,8 @@
       <c r="B2" s="1">
         <v>0.937</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.927</v>
+      <c r="C2" s="3">
+        <v>0.934</v>
       </c>
       <c r="D2" s="1">
         <v>0.94</v>
@@ -1119,7 +1119,7 @@
       <c r="E2" s="2">
         <v>0.941</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>0.938</v>
       </c>
     </row>
@@ -1130,8 +1130,8 @@
       <c r="B3" s="1">
         <v>0.688</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.668</v>
+      <c r="C3" s="3">
+        <v>0.681</v>
       </c>
       <c r="D3" s="1">
         <v>0.669</v>
@@ -1139,7 +1139,7 @@
       <c r="E3" s="2">
         <v>0.684</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0.705</v>
       </c>
     </row>
@@ -1150,8 +1150,8 @@
       <c r="B4" s="1">
         <v>0.897</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.785</v>
+      <c r="C4" s="3">
+        <v>0.825</v>
       </c>
       <c r="D4" s="1">
         <v>0.793</v>
@@ -1159,7 +1159,7 @@
       <c r="E4" s="2">
         <v>0.879</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0.882</v>
       </c>
     </row>
@@ -1170,8 +1170,8 @@
       <c r="B5" s="1">
         <v>0.676</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.68</v>
+      <c r="C5" s="3">
+        <v>0.662</v>
       </c>
       <c r="D5" s="1">
         <v>0.669</v>
@@ -1179,7 +1179,7 @@
       <c r="E5" s="2">
         <v>0.685</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0.695</v>
       </c>
     </row>
@@ -1190,8 +1190,8 @@
       <c r="B6" s="1">
         <v>0.685</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.705</v>
+      <c r="C6" s="3">
+        <v>0.704</v>
       </c>
       <c r="D6" s="1">
         <v>0.699</v>
@@ -1199,7 +1199,7 @@
       <c r="E6" s="2">
         <v>0.699</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0.719</v>
       </c>
     </row>
@@ -1210,8 +1210,8 @@
       <c r="B7" s="1">
         <v>0.911</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.922</v>
+      <c r="C7" s="3">
+        <v>0.919</v>
       </c>
       <c r="D7" s="1">
         <v>0.885</v>
@@ -1219,7 +1219,7 @@
       <c r="E7" s="2">
         <v>0.926</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0.908</v>
       </c>
     </row>
@@ -1230,8 +1230,8 @@
       <c r="B8" s="1">
         <v>0.853</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.857</v>
+      <c r="C8" s="3">
+        <v>0.863</v>
       </c>
       <c r="D8" s="1">
         <v>0.843</v>
@@ -1239,7 +1239,7 @@
       <c r="E8" s="2">
         <v>0.852</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0.848</v>
       </c>
     </row>
@@ -1250,8 +1250,8 @@
       <c r="B9" s="1">
         <v>0.849</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.839</v>
+      <c r="C9" s="3">
+        <v>0.842</v>
       </c>
       <c r="D9" s="1">
         <v>0.817</v>
@@ -1259,7 +1259,7 @@
       <c r="E9" s="2">
         <v>0.852</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0.847</v>
       </c>
     </row>
@@ -1270,8 +1270,8 @@
       <c r="B10" s="1">
         <v>0.839</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.817</v>
+      <c r="C10" s="3">
+        <v>0.824</v>
       </c>
       <c r="D10" s="1">
         <v>0.784</v>
@@ -1279,7 +1279,7 @@
       <c r="E10" s="2">
         <v>0.818</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0.825</v>
       </c>
     </row>
@@ -1290,8 +1290,8 @@
       <c r="B11" s="1">
         <v>0.596</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.63</v>
+      <c r="C11" s="3">
+        <v>0.625</v>
       </c>
       <c r="D11" s="1">
         <v>0.604</v>
@@ -1299,7 +1299,7 @@
       <c r="E11" s="2">
         <v>0.627</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0.628</v>
       </c>
     </row>
@@ -1310,8 +1310,8 @@
       <c r="B12" s="1">
         <v>0.722</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.715</v>
+      <c r="C12" s="3">
+        <v>0.703</v>
       </c>
       <c r="D12" s="1">
         <v>0.703</v>
@@ -1319,7 +1319,7 @@
       <c r="E12" s="2">
         <v>0.705</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>0.76</v>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       <c r="B13" s="1">
         <v>0.764</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>0.774</v>
       </c>
       <c r="D13" s="1">
@@ -1339,7 +1339,7 @@
       <c r="E13" s="2">
         <v>0.756</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>0.754</v>
       </c>
     </row>
@@ -1350,8 +1350,8 @@
       <c r="B14" s="1">
         <v>0.651</v>
       </c>
-      <c r="C14" s="1">
-        <v>0.692</v>
+      <c r="C14" s="3">
+        <v>0.694</v>
       </c>
       <c r="D14" s="1">
         <v>0.642</v>
@@ -1359,7 +1359,7 @@
       <c r="E14" s="2">
         <v>0.7</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>0.677</v>
       </c>
     </row>
@@ -1370,8 +1370,8 @@
       <c r="B15" s="1">
         <v>0.835</v>
       </c>
-      <c r="C15" s="1">
-        <v>0.848</v>
+      <c r="C15" s="3">
+        <v>0.847</v>
       </c>
       <c r="D15" s="1">
         <v>0.837</v>
@@ -1379,7 +1379,7 @@
       <c r="E15" s="2">
         <v>0.847</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>0.844</v>
       </c>
     </row>
@@ -1390,8 +1390,8 @@
       <c r="B16" s="1">
         <v>0.702</v>
       </c>
-      <c r="C16" s="1">
-        <v>0.727</v>
+      <c r="C16" s="3">
+        <v>0.698</v>
       </c>
       <c r="D16" s="1">
         <v>0.715</v>
@@ -1399,7 +1399,7 @@
       <c r="E16" s="2">
         <v>0.718</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>0.707</v>
       </c>
     </row>
@@ -1410,8 +1410,8 @@
       <c r="B17" s="1">
         <v>0.849</v>
       </c>
-      <c r="C17" s="1">
-        <v>0.853</v>
+      <c r="C17" s="3">
+        <v>0.852</v>
       </c>
       <c r="D17" s="1">
         <v>0.85</v>
@@ -1419,7 +1419,7 @@
       <c r="E17" s="2">
         <v>0.85</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>0.85</v>
       </c>
     </row>
@@ -1430,8 +1430,8 @@
       <c r="B18" s="1">
         <v>0.698</v>
       </c>
-      <c r="C18" s="1">
-        <v>0.727</v>
+      <c r="C18" s="3">
+        <v>0.729</v>
       </c>
       <c r="D18" s="1">
         <v>0.709</v>
@@ -1439,7 +1439,7 @@
       <c r="E18" s="2">
         <v>0.71</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>0.731</v>
       </c>
     </row>
@@ -1450,8 +1450,8 @@
       <c r="B19" s="1">
         <v>0.594</v>
       </c>
-      <c r="C19" s="1">
-        <v>0.606</v>
+      <c r="C19" s="3">
+        <v>0.619</v>
       </c>
       <c r="D19" s="1">
         <v>0.648</v>
@@ -1459,7 +1459,7 @@
       <c r="E19" s="2">
         <v>0.623</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>0.657</v>
       </c>
     </row>
@@ -1470,8 +1470,8 @@
       <c r="B20" s="1">
         <v>0.723</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.735</v>
+      <c r="C20" s="3">
+        <v>0.737</v>
       </c>
       <c r="D20" s="1">
         <v>0.716</v>
@@ -1479,7 +1479,7 @@
       <c r="E20" s="2">
         <v>0.733</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>0.72</v>
       </c>
     </row>
@@ -1490,8 +1490,8 @@
       <c r="B21" s="1">
         <v>0.652</v>
       </c>
-      <c r="C21" s="1">
-        <v>0.708</v>
+      <c r="C21" s="3">
+        <v>0.702</v>
       </c>
       <c r="D21" s="1">
         <v>0.701</v>
@@ -1499,7 +1499,7 @@
       <c r="E21" s="2">
         <v>0.708</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>0.716</v>
       </c>
     </row>

--- a/result/compare_result/compare_result_0729/result-100%.xlsx
+++ b/result/compare_result/compare_result_0729/result-100%.xlsx
@@ -102,9 +102,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,13 +116,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -130,37 +136,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,14 +152,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,64 +189,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,43 +268,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,139 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,50 +459,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,17 +486,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,6 +544,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -567,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1110,11 +1110,11 @@
       <c r="B2" s="1">
         <v>0.937</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.934</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.94</v>
+      <c r="D2" s="3">
+        <v>0.941</v>
       </c>
       <c r="E2" s="2">
         <v>0.941</v>
@@ -1130,11 +1130,11 @@
       <c r="B3" s="1">
         <v>0.688</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.681</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.669</v>
+      <c r="D3" s="3">
+        <v>0.688</v>
       </c>
       <c r="E3" s="2">
         <v>0.684</v>
@@ -1150,11 +1150,11 @@
       <c r="B4" s="1">
         <v>0.897</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.825</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.793</v>
+      <c r="D4" s="3">
+        <v>0.79</v>
       </c>
       <c r="E4" s="2">
         <v>0.879</v>
@@ -1170,11 +1170,11 @@
       <c r="B5" s="1">
         <v>0.676</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.662</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.669</v>
+      <c r="D5" s="3">
+        <v>0.658</v>
       </c>
       <c r="E5" s="2">
         <v>0.685</v>
@@ -1190,11 +1190,11 @@
       <c r="B6" s="1">
         <v>0.685</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.704</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.699</v>
+      <c r="D6" s="3">
+        <v>0.704</v>
       </c>
       <c r="E6" s="2">
         <v>0.699</v>
@@ -1210,11 +1210,11 @@
       <c r="B7" s="1">
         <v>0.911</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.919</v>
       </c>
-      <c r="D7" s="1">
-        <v>0.885</v>
+      <c r="D7" s="3">
+        <v>0.882</v>
       </c>
       <c r="E7" s="2">
         <v>0.926</v>
@@ -1230,11 +1230,11 @@
       <c r="B8" s="1">
         <v>0.853</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.863</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.843</v>
+      <c r="D8" s="3">
+        <v>0.84</v>
       </c>
       <c r="E8" s="2">
         <v>0.852</v>
@@ -1250,11 +1250,11 @@
       <c r="B9" s="1">
         <v>0.849</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.842</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.817</v>
+      <c r="D9" s="3">
+        <v>0.818</v>
       </c>
       <c r="E9" s="2">
         <v>0.852</v>
@@ -1270,11 +1270,11 @@
       <c r="B10" s="1">
         <v>0.839</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.824</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.784</v>
+      <c r="D10" s="3">
+        <v>0.783</v>
       </c>
       <c r="E10" s="2">
         <v>0.818</v>
@@ -1290,11 +1290,11 @@
       <c r="B11" s="1">
         <v>0.596</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.625</v>
       </c>
-      <c r="D11" s="1">
-        <v>0.604</v>
+      <c r="D11" s="3">
+        <v>0.602</v>
       </c>
       <c r="E11" s="2">
         <v>0.627</v>
@@ -1310,11 +1310,11 @@
       <c r="B12" s="1">
         <v>0.722</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.703</v>
       </c>
-      <c r="D12" s="1">
-        <v>0.703</v>
+      <c r="D12" s="3">
+        <v>0.698</v>
       </c>
       <c r="E12" s="2">
         <v>0.705</v>
@@ -1330,11 +1330,11 @@
       <c r="B13" s="1">
         <v>0.764</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.774</v>
       </c>
-      <c r="D13" s="1">
-        <v>0.748</v>
+      <c r="D13" s="3">
+        <v>0.751</v>
       </c>
       <c r="E13" s="2">
         <v>0.756</v>
@@ -1350,10 +1350,10 @@
       <c r="B14" s="1">
         <v>0.651</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.694</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>0.642</v>
       </c>
       <c r="E14" s="2">
@@ -1370,11 +1370,11 @@
       <c r="B15" s="1">
         <v>0.835</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>0.847</v>
       </c>
-      <c r="D15" s="1">
-        <v>0.837</v>
+      <c r="D15" s="3">
+        <v>0.832</v>
       </c>
       <c r="E15" s="2">
         <v>0.847</v>
@@ -1390,11 +1390,11 @@
       <c r="B16" s="1">
         <v>0.702</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>0.698</v>
       </c>
-      <c r="D16" s="1">
-        <v>0.715</v>
+      <c r="D16" s="3">
+        <v>0.706</v>
       </c>
       <c r="E16" s="2">
         <v>0.718</v>
@@ -1410,11 +1410,11 @@
       <c r="B17" s="1">
         <v>0.849</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>0.852</v>
       </c>
-      <c r="D17" s="1">
-        <v>0.85</v>
+      <c r="D17" s="3">
+        <v>0.848</v>
       </c>
       <c r="E17" s="2">
         <v>0.85</v>
@@ -1430,11 +1430,11 @@
       <c r="B18" s="1">
         <v>0.698</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>0.729</v>
       </c>
-      <c r="D18" s="1">
-        <v>0.709</v>
+      <c r="D18" s="3">
+        <v>0.711</v>
       </c>
       <c r="E18" s="2">
         <v>0.71</v>
@@ -1450,11 +1450,11 @@
       <c r="B19" s="1">
         <v>0.594</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>0.619</v>
       </c>
-      <c r="D19" s="1">
-        <v>0.648</v>
+      <c r="D19" s="3">
+        <v>0.638</v>
       </c>
       <c r="E19" s="2">
         <v>0.623</v>
@@ -1470,11 +1470,11 @@
       <c r="B20" s="1">
         <v>0.723</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.737</v>
       </c>
-      <c r="D20" s="1">
-        <v>0.716</v>
+      <c r="D20" s="3">
+        <v>0.719</v>
       </c>
       <c r="E20" s="2">
         <v>0.733</v>
@@ -1490,11 +1490,11 @@
       <c r="B21" s="1">
         <v>0.652</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.702</v>
       </c>
-      <c r="D21" s="1">
-        <v>0.701</v>
+      <c r="D21" s="3">
+        <v>0.699</v>
       </c>
       <c r="E21" s="2">
         <v>0.708</v>

--- a/result/compare_result/compare_result_0729/result-100%.xlsx
+++ b/result/compare_result/compare_result_0729/result-100%.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Drg</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>传递式迁移（未调参）</t>
-  </si>
-  <si>
-    <t>传递式迁移（调参后总迭代超过100）</t>
   </si>
   <si>
     <t>传递式迁移（调参后总迭代为100）</t>
@@ -101,8 +98,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -116,28 +113,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,100 +242,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,12 +265,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -286,13 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,151 +427,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +456,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,16 +499,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,21 +542,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -567,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,20 +1067,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="31.125" customWidth="1"/>
     <col min="6" max="6" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1099,13 +1096,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>0.937</v>
@@ -1113,19 +1107,16 @@
       <c r="C2" s="2">
         <v>0.934</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.941</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.941</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.938</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="D2" s="2">
+        <v>0.942</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>0.688</v>
@@ -1133,19 +1124,16 @@
       <c r="C3" s="2">
         <v>0.681</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.688</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.684</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="D3" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="E3" s="3">
         <v>0.705</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>0.897</v>
@@ -1153,19 +1141,16 @@
       <c r="C4" s="2">
         <v>0.825</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.79</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.879</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.882</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="D4" s="2">
+        <v>0.804</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>0.676</v>
@@ -1173,19 +1158,16 @@
       <c r="C5" s="2">
         <v>0.662</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.658</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="E5" s="3">
         <v>0.685</v>
       </c>
-      <c r="F5" s="2">
-        <v>0.695</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>0.685</v>
@@ -1193,19 +1175,16 @@
       <c r="C6" s="2">
         <v>0.704</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.704</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.699</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="D6" s="2">
         <v>0.719</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6" s="3">
+        <v>0.731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>0.911</v>
@@ -1213,19 +1192,16 @@
       <c r="C7" s="2">
         <v>0.919</v>
       </c>
-      <c r="D7" s="3">
-        <v>0.882</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.926</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="D7" s="2">
+        <v>0.876</v>
+      </c>
+      <c r="E7" s="3">
         <v>0.908</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>0.853</v>
@@ -1233,19 +1209,16 @@
       <c r="C8" s="2">
         <v>0.863</v>
       </c>
-      <c r="D8" s="3">
-        <v>0.84</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.852</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="D8" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="E8" s="3">
         <v>0.848</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>0.849</v>
@@ -1253,19 +1226,16 @@
       <c r="C9" s="2">
         <v>0.842</v>
       </c>
-      <c r="D9" s="3">
-        <v>0.818</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.852</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="D9" s="2">
+        <v>0.836</v>
+      </c>
+      <c r="E9" s="3">
         <v>0.847</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>0.839</v>
@@ -1273,19 +1243,16 @@
       <c r="C10" s="2">
         <v>0.824</v>
       </c>
-      <c r="D10" s="3">
-        <v>0.783</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.818</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="D10" s="2">
+        <v>0.808</v>
+      </c>
+      <c r="E10" s="3">
         <v>0.825</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>0.596</v>
@@ -1293,19 +1260,16 @@
       <c r="C11" s="2">
         <v>0.625</v>
       </c>
-      <c r="D11" s="3">
-        <v>0.602</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.627</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="D11" s="2">
+        <v>0.594</v>
+      </c>
+      <c r="E11" s="3">
         <v>0.628</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>0.722</v>
@@ -1313,19 +1277,16 @@
       <c r="C12" s="2">
         <v>0.703</v>
       </c>
-      <c r="D12" s="3">
-        <v>0.698</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.705</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="D12" s="2">
+        <v>0.675</v>
+      </c>
+      <c r="E12" s="3">
         <v>0.76</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>0.764</v>
@@ -1333,19 +1294,16 @@
       <c r="C13" s="2">
         <v>0.774</v>
       </c>
-      <c r="D13" s="3">
-        <v>0.751</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.756</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="D13" s="2">
+        <v>0.746</v>
+      </c>
+      <c r="E13" s="3">
         <v>0.754</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
         <v>0.651</v>
@@ -1353,19 +1311,16 @@
       <c r="C14" s="2">
         <v>0.694</v>
       </c>
-      <c r="D14" s="3">
-        <v>0.642</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="D14" s="2">
+        <v>0.623</v>
+      </c>
+      <c r="E14" s="3">
         <v>0.677</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
         <v>0.835</v>
@@ -1373,19 +1328,16 @@
       <c r="C15" s="2">
         <v>0.847</v>
       </c>
-      <c r="D15" s="3">
-        <v>0.832</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.847</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="D15" s="2">
+        <v>0.829</v>
+      </c>
+      <c r="E15" s="3">
         <v>0.844</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
         <v>0.702</v>
@@ -1393,19 +1345,16 @@
       <c r="C16" s="2">
         <v>0.698</v>
       </c>
-      <c r="D16" s="3">
-        <v>0.706</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.718</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="D16" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>0.849</v>
@@ -1413,19 +1362,16 @@
       <c r="C17" s="2">
         <v>0.852</v>
       </c>
-      <c r="D17" s="3">
-        <v>0.848</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="2">
         <v>0.85</v>
       </c>
-      <c r="F17" s="2">
+      <c r="E17" s="3">
         <v>0.85</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>0.698</v>
@@ -1433,19 +1379,16 @@
       <c r="C18" s="2">
         <v>0.729</v>
       </c>
-      <c r="D18" s="3">
-        <v>0.711</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="D18" s="2">
+        <v>0.715</v>
+      </c>
+      <c r="E18" s="3">
         <v>0.731</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
         <v>0.594</v>
@@ -1453,19 +1396,16 @@
       <c r="C19" s="2">
         <v>0.619</v>
       </c>
-      <c r="D19" s="3">
-        <v>0.638</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.623</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="D19" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="E19" s="3">
         <v>0.657</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <v>0.723</v>
@@ -1473,19 +1413,16 @@
       <c r="C20" s="2">
         <v>0.737</v>
       </c>
-      <c r="D20" s="3">
-        <v>0.719</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.733</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="D20" s="2">
+        <v>0.712</v>
+      </c>
+      <c r="E20" s="3">
         <v>0.72</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
         <v>0.652</v>
@@ -1493,13 +1430,10 @@
       <c r="C21" s="2">
         <v>0.702</v>
       </c>
-      <c r="D21" s="3">
-        <v>0.699</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.708</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="D21" s="2">
+        <v>0.718</v>
+      </c>
+      <c r="E21" s="3">
         <v>0.716</v>
       </c>
     </row>

--- a/result/compare_result/compare_result_0729/result-100%.xlsx
+++ b/result/compare_result/compare_result_0729/result-100%.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="19200" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,70 +27,70 @@
     <t>单次迁移</t>
   </si>
   <si>
+    <t>传递式迁移（调参后总迭代为100）</t>
+  </si>
+  <si>
+    <t>Drg0</t>
+  </si>
+  <si>
+    <t>Drg2</t>
+  </si>
+  <si>
+    <t>Drg3</t>
+  </si>
+  <si>
+    <t>Drg50</t>
+  </si>
+  <si>
+    <t>Drg52</t>
+  </si>
+  <si>
+    <t>Drg66</t>
+  </si>
+  <si>
+    <t>Drg67</t>
+  </si>
+  <si>
+    <t>Drg68</t>
+  </si>
+  <si>
+    <t>Drg69</t>
+  </si>
+  <si>
+    <t>Drg84</t>
+  </si>
+  <si>
+    <t>Drg96</t>
+  </si>
+  <si>
+    <t>Drg97</t>
+  </si>
+  <si>
+    <t>Drg178</t>
+  </si>
+  <si>
+    <t>Drg179</t>
+  </si>
+  <si>
+    <t>Drg256</t>
+  </si>
+  <si>
+    <t>Drg259</t>
+  </si>
+  <si>
+    <t>Drg261</t>
+  </si>
+  <si>
+    <t>Drg262</t>
+  </si>
+  <si>
+    <t>Drg263</t>
+  </si>
+  <si>
+    <t>Drg309</t>
+  </si>
+  <si>
     <t>传递式迁移（未调参）</t>
-  </si>
-  <si>
-    <t>传递式迁移（调参后总迭代为100）</t>
-  </si>
-  <si>
-    <t>Drg0</t>
-  </si>
-  <si>
-    <t>Drg2</t>
-  </si>
-  <si>
-    <t>Drg3</t>
-  </si>
-  <si>
-    <t>Drg50</t>
-  </si>
-  <si>
-    <t>Drg52</t>
-  </si>
-  <si>
-    <t>Drg66</t>
-  </si>
-  <si>
-    <t>Drg67</t>
-  </si>
-  <si>
-    <t>Drg68</t>
-  </si>
-  <si>
-    <t>Drg69</t>
-  </si>
-  <si>
-    <t>Drg84</t>
-  </si>
-  <si>
-    <t>Drg96</t>
-  </si>
-  <si>
-    <t>Drg97</t>
-  </si>
-  <si>
-    <t>Drg178</t>
-  </si>
-  <si>
-    <t>Drg179</t>
-  </si>
-  <si>
-    <t>Drg256</t>
-  </si>
-  <si>
-    <t>Drg259</t>
-  </si>
-  <si>
-    <t>Drg261</t>
-  </si>
-  <si>
-    <t>Drg262</t>
-  </si>
-  <si>
-    <t>Drg263</t>
-  </si>
-  <si>
-    <t>Drg309</t>
   </si>
 </sst>
 </file>
@@ -99,9 +99,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -112,31 +112,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,6 +136,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -158,6 +151,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -165,6 +173,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -174,6 +197,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -187,76 +234,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,13 +265,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,43 +415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,25 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,91 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +462,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,6 +493,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -515,29 +541,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,137 +582,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,7 +722,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,20 +1076,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="28.875" customWidth="1"/>
     <col min="5" max="5" width="31.125" customWidth="1"/>
     <col min="6" max="6" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,33 +1099,27 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0.937</v>
       </c>
       <c r="C2" s="2">
         <v>0.934</v>
       </c>
       <c r="D2" s="2">
-        <v>0.942</v>
-      </c>
-      <c r="E2" s="3">
         <v>0.936</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>0.688</v>
@@ -1124,16 +1127,13 @@
       <c r="C3" s="2">
         <v>0.681</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="4">
         <v>0.705</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>0.897</v>
@@ -1141,16 +1141,13 @@
       <c r="C4" s="2">
         <v>0.825</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.804</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="4">
         <v>0.898</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>0.676</v>
@@ -1158,16 +1155,13 @@
       <c r="C5" s="2">
         <v>0.662</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="4">
         <v>0.685</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>0.685</v>
@@ -1175,33 +1169,27 @@
       <c r="C6" s="2">
         <v>0.704</v>
       </c>
-      <c r="D6" s="2">
-        <v>0.719</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="4">
         <v>0.731</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>0.911</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>0.919</v>
       </c>
       <c r="D7" s="2">
-        <v>0.876</v>
-      </c>
-      <c r="E7" s="3">
         <v>0.908</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>0.853</v>
@@ -1209,50 +1197,41 @@
       <c r="C8" s="2">
         <v>0.863</v>
       </c>
-      <c r="D8" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="4">
         <v>0.848</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.849</v>
       </c>
       <c r="C9" s="2">
         <v>0.842</v>
       </c>
       <c r="D9" s="2">
-        <v>0.836</v>
-      </c>
-      <c r="E9" s="3">
         <v>0.847</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.839</v>
       </c>
       <c r="C10" s="2">
         <v>0.824</v>
       </c>
       <c r="D10" s="2">
-        <v>0.808</v>
-      </c>
-      <c r="E10" s="3">
         <v>0.825</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>0.596</v>
@@ -1260,16 +1239,13 @@
       <c r="C11" s="2">
         <v>0.625</v>
       </c>
-      <c r="D11" s="2">
-        <v>0.594</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="4">
         <v>0.628</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>0.722</v>
@@ -1277,67 +1253,55 @@
       <c r="C12" s="2">
         <v>0.703</v>
       </c>
-      <c r="D12" s="2">
-        <v>0.675</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="4">
         <v>0.76</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>0.764</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>0.774</v>
       </c>
       <c r="D13" s="2">
-        <v>0.746</v>
-      </c>
-      <c r="E13" s="3">
         <v>0.754</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>0.651</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>0.694</v>
       </c>
       <c r="D14" s="2">
-        <v>0.623</v>
-      </c>
-      <c r="E14" s="3">
         <v>0.677</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>0.835</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>0.847</v>
       </c>
       <c r="D15" s="2">
-        <v>0.829</v>
-      </c>
-      <c r="E15" s="3">
         <v>0.844</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>0.702</v>
@@ -1345,33 +1309,27 @@
       <c r="C16" s="2">
         <v>0.698</v>
       </c>
-      <c r="D16" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="4">
         <v>0.713</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>0.849</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>0.852</v>
       </c>
       <c r="D17" s="2">
         <v>0.85</v>
       </c>
-      <c r="E17" s="3">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>0.698</v>
@@ -1379,16 +1337,13 @@
       <c r="C18" s="2">
         <v>0.729</v>
       </c>
-      <c r="D18" s="2">
-        <v>0.715</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="4">
         <v>0.731</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>0.594</v>
@@ -1396,33 +1351,27 @@
       <c r="C19" s="2">
         <v>0.619</v>
       </c>
-      <c r="D19" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D19" s="4">
         <v>0.657</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>0.723</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>0.737</v>
       </c>
       <c r="D20" s="2">
-        <v>0.712</v>
-      </c>
-      <c r="E20" s="3">
         <v>0.72</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0.652</v>
@@ -1430,11 +1379,113 @@
       <c r="C21" s="2">
         <v>0.702</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
+        <v>0.716</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="4">
+        <v>0.942</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="4">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="2">
+        <v>0.804</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="2">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="2">
+        <v>0.719</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="2">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="2">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="2">
+        <v>0.836</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="2">
+        <v>0.808</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="2">
+        <v>0.594</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="2">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="2">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="2">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="2">
+        <v>0.829</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="2">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="2">
+        <v>0.715</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="2">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="2">
+        <v>0.712</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="2">
         <v>0.718</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.716</v>
       </c>
     </row>
   </sheetData>
